--- a/data/trans_bre/P21D_2_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P21D_2_R-Clase-trans_bre.xlsx
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.729477361448373</v>
+        <v>1.720886327034219</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.811782162859179</v>
+        <v>-1.46166736262014</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8485403921638798</v>
+        <v>0.8357974672412311</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1.720665804827328</v>
+        <v>1.720665804827327</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3.511183483941986</v>
+        <v>3.511183483941985</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2066513706065329</v>
+        <v>-0.2267967008994798</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.478173821811342</v>
+        <v>5.755683398332207</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>1.636707442034138</v>
+        <v>1.636707442034139</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.8723171726465375</v>
+        <v>0.872317172646538</v>
       </c>
     </row>
     <row r="14">
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.435818414785311</v>
+        <v>-0.144414796223392</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2355989026405977</v>
+        <v>-0.1201154014126953</v>
       </c>
     </row>
     <row r="15">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.626010807792067</v>
+        <v>3.520251306739858</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.153814630033758</v>
+        <v>2.952492051139914</v>
       </c>
     </row>
     <row r="16">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-4.070216301387249</v>
+        <v>-4.07021630138725</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.5067189447074758</v>
+        <v>-0.5067189447074759</v>
       </c>
     </row>
     <row r="17">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.237735202966112</v>
+        <v>-8.616595018067445</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.7291584264771741</v>
+        <v>-0.7497839065124694</v>
       </c>
     </row>
     <row r="18">
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.3140422477901259</v>
+        <v>-0.7115066524825064</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-0.02743851692711309</v>
+        <v>-0.08309956630770295</v>
       </c>
     </row>
     <row r="19">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.3154461419877915</v>
+        <v>-0.5666168497691176</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
     </row>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.690684182547558</v>
+        <v>3.853665512628092</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
     </row>
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7151539289180368</v>
+        <v>-0.8243442121934046</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.2668076223955211</v>
+        <v>-0.2890081739717337</v>
       </c>
     </row>
     <row r="24">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.2938153561047</v>
+        <v>1.236186306356875</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.7855046602125233</v>
+        <v>0.7620706346528282</v>
       </c>
     </row>
     <row r="25">
